--- a/src/Tests/CellsTests.AppendCellDate.verified.xlsx
+++ b/src/Tests/CellsTests.AppendCellDate.verified.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -16,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>DateTime_1</t>
-  </si>
-  <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET. Copyright 2003 - 2025 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -31,18 +27,10 @@
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="yyyy-MM-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -75,13 +63,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -485,22 +469,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>